--- a/libs/golang/test/user_cases.xlsx
+++ b/libs/golang/test/user_cases.xlsx
@@ -35,6 +35,12 @@
     <t>caseType</t>
   </si>
   <si>
+    <t>expectedResult</t>
+  </si>
+  <si>
+    <t>expectedException</t>
+  </si>
+  <si>
     <t>tenantId</t>
   </si>
   <si>
@@ -65,12 +71,6 @@
     <t>roleId</t>
   </si>
   <si>
-    <t>expectedResult</t>
-  </si>
-  <si>
-    <t>expectedException</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -80,6 +80,9 @@
     <t>assertNotNull</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>123e4567-e89b-12d3-a456-426614174000</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
     <t>testuser</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>邮箱为空异常</t>
   </si>
   <si>
@@ -173,7 +173,7 @@
     <t>挂起状态下修改密码抛异常</t>
   </si>
   <si>
-    <t>Cannot change password for a suspended user.</t>
+    <t>IllegalStateError</t>
   </si>
   <si>
     <t>SUSPENDED</t>
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -221,7 +221,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -229,7 +229,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <i val="1"/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
@@ -237,7 +237,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -245,7 +245,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -253,7 +253,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -268,7 +268,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -276,7 +276,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -284,7 +284,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -299,7 +299,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -647,148 +647,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -889,6 +889,7 @@
           <color theme="4"/>
         </top>
         <bottom/>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -920,6 +921,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -936,6 +938,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -955,6 +958,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -973,6 +977,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -995,6 +1000,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1033,6 +1039,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1053,6 +1060,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1069,6 +1077,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1088,6 +1097,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1106,6 +1116,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1128,6 +1139,7 @@
         <bottom style="thin">
           <color theme="4"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1166,6 +1178,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
@@ -1186,11 +1199,12 @@
         <bottom style="thin">
           <color theme="4" tint="0.399975585192419"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="3" defaultTableStyle="TableStylePreset3_Accent1 1" defaultPivotStyle="PivotStylePreset2_Accent1 1">
-    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7" xr9:uid="{ED2DFD90-AABC-0BB6-E4FE-5C68B846E1E1}">
+  <tableStyles count="3" defaultPivotStyle="PivotStylePreset2_Accent1 1" defaultTableStyle="TableStylePreset3_Accent1 1">
+    <tableStyle name="TableStylePreset3_Accent1 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1199,7 +1213,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" pivot="0" count="10" xr9:uid="{77B5F32A-5AD9-3479-E4FE-5C6810130DC6}">
+    <tableStyle name="PivotStylePreset2_Accent1" pivot="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1211,7 +1225,7 @@
       <tableStyleElement type="pageFieldLabels" dxfId="8"/>
       <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1 1" table="0" count="10" xr9:uid="{DEE2E1B8-8419-D2E1-E4FE-5C68450E699E}">
+    <tableStyle name="PivotStylePreset2_Accent1 1" pivot="0" count="10">
       <tableStyleElement type="headerRow" dxfId="26"/>
       <tableStyleElement type="totalRow" dxfId="25"/>
       <tableStyleElement type="firstRowStripe" dxfId="24"/>
@@ -1233,7 +1247,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WPS">
   <a:themeElements>
     <a:clrScheme name="WPS">
       <a:dk1>
@@ -1476,6 +1490,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1484,21 +1499,27 @@
   <sheetPr/>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="24.5192307692308" customWidth="1"/>
-    <col min="2" max="2" width="31.25" customWidth="1"/>
-    <col min="3" max="3" width="36.0480769230769" customWidth="1"/>
-    <col min="4" max="4" width="28.8365384615385" customWidth="1"/>
-    <col min="5" max="5" width="27.5576923076923" customWidth="1"/>
-    <col min="6" max="6" width="44.5480769230769" customWidth="1"/>
-    <col min="7" max="7" width="24.1923076923077" customWidth="1"/>
-    <col min="8" max="8" width="15.5384615384615" customWidth="1"/>
-    <col min="14" max="14" width="26.2692307692308" customWidth="1"/>
+    <col customWidth="true" max="1" min="1" width="24.5192307692308"/>
+    <col customWidth="true" max="2" min="2" width="21.3076923076923"/>
+    <col customWidth="true" max="3" min="3" width="13.7788461538462"/>
+    <col customWidth="true" max="4" min="4" width="26.2692307692308"/>
+    <col customWidth="true" max="5" min="5" width="36.0480769230769"/>
+    <col customWidth="true" max="6" min="6" width="18.1057692307692"/>
+    <col customWidth="true" max="7" min="7" width="12.5"/>
+    <col customWidth="true" max="8" min="8" width="11.375"/>
+    <col customWidth="true" max="9" min="9" width="16.6634615384615"/>
+    <col customWidth="true" max="10" min="10" width="16.9903846153846"/>
+    <col customWidth="true" max="11" min="11" width="14.2596153846154"/>
+    <col customWidth="true" max="12" min="12" width="14.7403846153846"/>
+    <col customWidth="true" max="13" min="13" width="13.6153846153846"/>
+    <col customWidth="true" max="14" min="14" width="16.5"/>
+    <col customWidth="true" max="15" min="15" width="12.0096153846154"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1559,40 +1580,40 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1606,40 +1627,40 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1653,40 +1674,40 @@
         <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1700,40 +1721,40 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1747,40 +1768,40 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
       </c>
       <c r="H6" t="s">
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1794,40 +1815,40 @@
         <v>17</v>
       </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>33</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>34</v>
       </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1837,44 +1858,32 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
       <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1888,40 +1897,40 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
         <v>37</v>
       </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1929,46 +1938,25 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>21</v>
       </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
       <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1976,46 +1964,25 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
       </c>
       <c r="H11" t="s">
         <v>21</v>
       </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>29</v>
-      </c>
-      <c r="K11" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -2029,40 +1996,40 @@
         <v>17</v>
       </c>
       <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
         <v>18</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -2076,40 +2043,40 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
       </c>
       <c r="H13" t="s">
         <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -2123,40 +2090,40 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>19</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
       </c>
       <c r="H14" t="s">
         <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
         <v>42</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>42</v>
       </c>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" t="s">
-        <v>21</v>
-      </c>
       <c r="O14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2170,40 +2137,40 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
       </c>
       <c r="H15" t="s">
         <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
         <v>42</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>42</v>
       </c>
-      <c r="M15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" t="s">
-        <v>21</v>
-      </c>
       <c r="O15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2214,43 +2181,43 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>19</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
       </c>
       <c r="H16" t="s">
         <v>21</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" t="s">
         <v>45</v>
       </c>
-      <c r="M16" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" t="s">
-        <v>21</v>
-      </c>
       <c r="O16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2261,43 +2228,43 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>19</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
       </c>
       <c r="H17" t="s">
         <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" t="s">
         <v>45</v>
       </c>
-      <c r="M17" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" t="s">
-        <v>21</v>
-      </c>
       <c r="O17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2307,41 +2274,23 @@
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
       <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>19</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
       </c>
       <c r="H18" t="s">
         <v>21</v>
       </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>37</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" t="s">
-        <v>48</v>
       </c>
       <c r="O18" t="s">
         <v>49</v>
